--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/2.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/2.xlsx
@@ -663,10 +663,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>29</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>26.44</v>
       </c>
     </row>
